--- a/biology/Médecine/Syndrome_de_Pancoast-Tobias/Syndrome_de_Pancoast-Tobias.xlsx
+++ b/biology/Médecine/Syndrome_de_Pancoast-Tobias/Syndrome_de_Pancoast-Tobias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de Pancoast-Tobias ou syndrome apico-costo-vertébral douloureux constitue l'une des manifestations possibles d'un cancer de la partie supérieure du thorax ou de la partie inférieure du cou, plus précisément et le plus souvent d'un cancer des apex (ou sommets) des poumons[1]. Ces derniers sont situés au voisinage de nombreuses structures — vaisseaux, nerfs… — et la croissance d'une tumeur peut, à un stade avancé, entraîner la compression ou la destruction de ces structures voisines.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Pancoast-Tobias ou syndrome apico-costo-vertébral douloureux constitue l'une des manifestations possibles d'un cancer de la partie supérieure du thorax ou de la partie inférieure du cou, plus précisément et le plus souvent d'un cancer des apex (ou sommets) des poumons. Ces derniers sont situés au voisinage de nombreuses structures — vaisseaux, nerfs… — et la croissance d'une tumeur peut, à un stade avancé, entraîner la compression ou la destruction de ces structures voisines.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce syndrome a été d'abord décrit par Edwin Hare[2], puis en 1924 par Henry Pancoast[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce syndrome a été d'abord décrit par Edwin Hare, puis en 1924 par Henry Pancoast,.
 </t>
         </is>
       </c>
@@ -544,17 +558,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Clinique
-L'ensemble des signes cliniques, symptômes secondaires à ces compressions et destructions est regroupé sous le terme de syndrome de Pancoast-Tobias. Il comprend ainsi :
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'ensemble des signes cliniques, symptômes secondaires à ces compressions et destructions est regroupé sous le terme de syndrome de Pancoast-Tobias. Il comprend ainsi :
 une destruction douloureuse de l'arc postérieur de la première (ou des deux premières) côte(s) ;
-une douleur irradiant jusque dans le bras, l'avant-bras et la main[1], liée à la compression de racines nerveuses (issues des métamères (ou « étages ») C8 et T1 de la moelle épinière) ;
+une douleur irradiant jusque dans le bras, l'avant-bras et la main, liée à la compression de racines nerveuses (issues des métamères (ou « étages ») C8 et T1 de la moelle épinière) ;
 une lyse des 2e, 3e et 4e arcs costaux ;
-un syndrome de Claude Bernard-Horner[1] comprenant une chute de la paupière supérieure (ou ptosis), une constriction de la pupille (ou myosis), et un enfoncement de l'œil situé du même côté que la lésion pulmonaire (énophtalmie), voire joue chaude et diminution de la sudation locale, liés à des compressions nerveuses du système nerveux sympathique ;
-une tachycardie (accélération du rythme cardiaque), des troubles de la sudation (anhydrose) et de la pigmentation cutanée[1].
-Examens complémentaires
-Radiographie thoracique montrant une opacité de l'apex[1]
-Scanner thoracique
-Calcémie à la recherche d'une hypercalcémie</t>
+un syndrome de Claude Bernard-Horner comprenant une chute de la paupière supérieure (ou ptosis), une constriction de la pupille (ou myosis), et un enfoncement de l'œil situé du même côté que la lésion pulmonaire (énophtalmie), voire joue chaude et diminution de la sudation locale, liés à des compressions nerveuses du système nerveux sympathique ;
+une tachycardie (accélération du rythme cardiaque), des troubles de la sudation (anhydrose) et de la pigmentation cutanée.</t>
         </is>
       </c>
     </row>
@@ -579,10 +594,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Examens complémentaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Radiographie thoracique montrant une opacité de l'apex
+Scanner thoracique
+Calcémie à la recherche d'une hypercalcémie</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Pancoast-Tobias</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Pancoast-Tobias</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son traitement est avant tout celui de la tumeur qui permettra de lever les compressions. Il semble toutefois important de préciser qu'il est souvent synonyme de stade avancé, et que son pronostic est, à ce titre, réservé. Une prise en charge symptomatique est indispensable (traitement de la douleur).
 </t>
